--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Academics_Mentor - Mentee Allocation.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Academics_Mentor - Mentee Allocation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="278">
   <si>
     <t>Contents</t>
   </si>
@@ -163,7 +163,7 @@
     <t>Test Case Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Mentor Allocation is a process in which Mentors (Instructors) are allocated to different student groups or students on various basis. It can either be a hostel mentor allocation or program wise allocation. </t>
+    <t xml:space="preserve">Mentor Allocation is a process in which Mentors (Trainers) are allocated to different student groups or students on various basis. It can either be a hostel mentor allocation or program wise allocation. </t>
   </si>
   <si>
     <t>Created By</t>
@@ -175,12 +175,6 @@
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>Executed By</t>
-  </si>
-  <si>
-    <t>Aman Kumar Singh</t>
-  </si>
-  <si>
     <t>S#</t>
   </si>
   <si>
@@ -193,19 +187,19 @@
     <t>User should be able to login to WSC application. and should sucessfully navigate to Academics &gt; Mentor-Mentee page &gt; Mentor-Mentee</t>
   </si>
   <si>
-    <t>User Id:-Administrator Pwd:-wsc@123</t>
+    <t>url: wscdemo.eduleadonline.com
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Student - student@gmail.com,   PW: erp@123
+Trainer:-trainer@gmail.com,   PW: erp@123</t>
   </si>
   <si>
     <t>The page should open with all the generic buttons and fields as a normal application behavior</t>
   </si>
   <si>
-    <t>URL: erp.worldskillcenter.org</t>
-  </si>
-  <si>
     <t xml:space="preserve">Student </t>
   </si>
   <si>
-    <t>Instructor</t>
+    <t>Trainer</t>
   </si>
   <si>
     <t>Academic Year</t>
@@ -253,7 +247,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Results (System Admin)</t>
+    <t>Actual Results</t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
@@ -263,6 +257,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">click on </t>
     </r>
     <r>
@@ -283,54 +284,36 @@
  page open with all the pre-requisites</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t xml:space="preserve">click on "ADD  Mentor Allocation" at the top right corner </t>
   </si>
   <si>
     <t>The New Mentor Allocation page opens up.</t>
   </si>
   <si>
-    <t>The New Mentor Allocation page is open</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter Mentor </t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from Employee list where User should able to select one employee from the list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from Employee list where User is able to select one employee from the list </t>
-  </si>
-  <si>
     <t>When user try to save without entering mentor</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please enter Mentor"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter Mentor"</t>
-  </si>
-  <si>
     <t>Enter Mentor Name</t>
   </si>
   <si>
     <t>this field should accept text field and value will auto filled after selecting the mentor</t>
   </si>
   <si>
-    <t>this field is accepting text field and value will auto filled after selecting the mentor</t>
-  </si>
-  <si>
     <t>Enter Allocation from</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from Academic Year where User should able to select one year from the list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from Academic Year where User is able to select one year from the list </t>
-  </si>
-  <si>
     <t>Enter Attendance To</t>
   </si>
   <si>
@@ -340,60 +323,39 @@
     <t>Error/warning mesaage should be displayed "Allocation from should be greater than Allcoation to"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displayed "Allocation from should be greater than Allcoation to"</t>
-  </si>
-  <si>
     <t>Enter Academic Year</t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from Academic Year where User should able to select one year from the list </t>
-  </si>
-  <si>
     <t>When user try to save without entering Academic Year</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please Academic Year"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please Academic Year"</t>
-  </si>
-  <si>
     <t>Select courses</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field where values should be fetched from the Course list and user should able to select one course from the list of courses </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field where values is fetched from the Course list and user is able to select one course from the list of courses </t>
-  </si>
-  <si>
     <t>When user try to save without Selecting course</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please enter course"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter course"</t>
-  </si>
-  <si>
     <t>Enter Semester</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from course list where User should able to select one course from the list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from course list where User is able to select one course from the list </t>
-  </si>
-  <si>
     <t>Enter Mentee list</t>
   </si>
   <si>
     <t>this is a table field where user should able to add data in the table</t>
   </si>
   <si>
-    <t>this is a table field where user is able to add data in the table</t>
-  </si>
-  <si>
     <t>Mentee list table</t>
   </si>
   <si>
@@ -403,34 +365,22 @@
     <t>this a link field where user need to select students manually</t>
   </si>
   <si>
-    <t>this a link field where user is selecting students manually</t>
-  </si>
-  <si>
     <t>Enter Student Name</t>
   </si>
   <si>
     <t>this field should accept text field and value will auto filled after selecting the Student ID</t>
   </si>
   <si>
-    <t>this field is accepting text field and value will auto filled after selecting the Student ID</t>
-  </si>
-  <si>
     <t>Enter User</t>
   </si>
   <si>
     <t xml:space="preserve">this field should accept text field </t>
   </si>
   <si>
-    <t xml:space="preserve">this field is accepting text field </t>
-  </si>
-  <si>
     <t>Enter Roll number</t>
   </si>
   <si>
     <t xml:space="preserve">this field should accept text field where user should able to select ID, after selection of ID roll number should auto filled </t>
-  </si>
-  <si>
-    <t xml:space="preserve">this field is accepting text field where user is able to select ID, after selection of ID roll number is auto filled </t>
   </si>
   <si>
     <t>check when user try to click on the Add Row button is clickable</t>
@@ -440,62 +390,40 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Add Row button is clickable and user is able to fill the table 
-</t>
-  </si>
-  <si>
     <t>check when user try to click on the top checkbox</t>
   </si>
   <si>
     <t>user should able to mark check and uncheck on the 1st chcekbox and when checked all the corresponding chcekboxes should be  marked as checked</t>
   </si>
   <si>
-    <t>user is able to mark check and uncheck on the 1st chcekbox and when checked all the corresponding chcekboxes is  marked as checked</t>
-  </si>
-  <si>
     <t>check if user mark some check box for delete the button should be clickable</t>
   </si>
   <si>
     <t>delete button should be clickable and user should able to delete single record in a table or can delete multiple records by marking check in the checkbox and hitting delete all button</t>
   </si>
   <si>
-    <t>delete button is clickable and user is able to delete single record in a table or can delete multiple records by marking check in the checkbox and hitting delete all button</t>
-  </si>
-  <si>
     <t xml:space="preserve">check if edit button in the table is clickable or not </t>
   </si>
   <si>
     <t>user should able to edit the field present in the table and edit button should be clickable</t>
   </si>
   <si>
-    <t>user is  able to edit the field present in the table and edit button should be clickable</t>
-  </si>
-  <si>
     <t>check if the settings button is clickable or not</t>
   </si>
   <si>
     <t xml:space="preserve">user should able to click on the settings button and configure coloumn pop-up should appear to make adjustments to the table column </t>
   </si>
   <si>
-    <t xml:space="preserve">user is able to click on the settings button and configure coloumn pop-up should appear to make adjustments to the table column </t>
-  </si>
-  <si>
     <t xml:space="preserve">check if the save button is clickable </t>
   </si>
   <si>
     <t>user must able to perform save action and the newly created mentor allocation should be visible and reflected in the list view in the Mentor allocation page</t>
   </si>
   <si>
-    <t>user must able to perform save action and the newly created mentor allocation is visible and reflected in the list view in the Mentor allocation page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Once user filled all the required details and perfrom click action on SAVE button </t>
   </si>
   <si>
     <t>A list view should be visible where user should able to view whether all the details are filled by the user or not in every feature</t>
-  </si>
-  <si>
-    <t>A list view is visible where user should able to view whether all the details are filled by the user or not in every feature</t>
   </si>
   <si>
     <t>User Roles &amp; Permission</t>
@@ -523,9 +451,6 @@
     <t xml:space="preserve"> No.</t>
   </si>
   <si>
-    <t>Actual Results</t>
-  </si>
-  <si>
     <t xml:space="preserve">When user try to login as admin with all the valid credentials 
 </t>
   </si>
@@ -533,9 +458,6 @@
     <t xml:space="preserve">Sucessfully login should happen and homepage must be visible to the user </t>
   </si>
   <si>
-    <t xml:space="preserve">Sucessfully login is done and homepage is visible to the user </t>
-  </si>
-  <si>
     <t xml:space="preserve">when user try to login as admin with all the invalid credentials 
 </t>
   </si>
@@ -544,10 +466,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">the warning message is showing as  please enter the valid credentials 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">when user try to login as admin but with blank credentials 
 </t>
   </si>
@@ -555,9 +473,6 @@
     <t>Please enter the mandatory details</t>
   </si>
   <si>
-    <t>Please enter the mandatory details is showing</t>
-  </si>
-  <si>
     <t xml:space="preserve">When user try to login as Student with all the valid credentials 
 </t>
   </si>
@@ -604,6 +519,9 @@
   </si>
   <si>
     <t>Addition of the New Mentor Mentee Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results </t>
   </si>
   <si>
     <r>
@@ -632,42 +550,27 @@
     <t>Communication page open with all the pre-requisites</t>
   </si>
   <si>
-    <t>Communication page is opening with all the pre-requisites</t>
-  </si>
-  <si>
     <t xml:space="preserve">click on "ADD  Mentor Mentee Communication" at the top right corner </t>
   </si>
   <si>
     <t>The New Mentor Mente Communication page opens up.</t>
   </si>
   <si>
-    <t>The New Mentor Mente Communication page is opening</t>
-  </si>
-  <si>
     <t>Enter Date</t>
   </si>
   <si>
     <t>user should able to select the date from the datepicker</t>
   </si>
   <si>
-    <t>user is able to select the date from the datepicker</t>
-  </si>
-  <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from Student  list where User should able to select one stduent from the list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from Student  list where User should able to select one stduent from the list </t>
-  </si>
-  <si>
     <t>When user try to save without entering Student</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please Enter Student"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please Enter Student"</t>
-  </si>
-  <si>
     <t>Enter courses</t>
   </si>
   <si>
@@ -677,46 +580,28 @@
     <t>Error/warning mesaage should be displayed "Please enter Courses"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter Courses"</t>
-  </si>
-  <si>
     <t>Enter Mentor Allocation</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from mentor allocation list where User should able to select one mentor from the list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from mentor allocation list where User is able to select one mentor from the list </t>
-  </si>
-  <si>
     <t>Enter mentor Name</t>
   </si>
   <si>
     <t>this field should accept text field and value will be selected by the user</t>
   </si>
   <si>
-    <t>this field is accepting text field and value will be selected by the user</t>
-  </si>
-  <si>
     <t>Enter description</t>
   </si>
   <si>
     <t>this field should accept text field and user should be able to write their own description</t>
   </si>
   <si>
-    <t>this field is accepting text field and user is able to write their own description</t>
-  </si>
-  <si>
     <t>Enter Student Disciplinary complain</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from Student  Disciplinary complain list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from Student  Disciplinary complain list </t>
-  </si>
-  <si>
-    <t>A list view is visible where user is able to view whether all the details are filled by the user or not in every feature</t>
   </si>
   <si>
     <t xml:space="preserve"> Admin can Select, Read, Write, Create, Delete but cannot Submit , cancel,  Amend
@@ -724,19 +609,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Trainer can select, Read, Write, Create, Delete but cannot Submit, cancel, Amend.</t>
-  </si>
-  <si>
-    <t>Mentor- mentee module is not showing on trainer page</t>
-  </si>
-  <si>
-    <t>As per discussed with developer, this is  prioriy 2 task. they will put it later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucessfully login is done and homepage is  visible to the user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the warning message is showing as please enter the valid credentials 
-</t>
   </si>
   <si>
     <t>the trainer is allowed to have the access of select, Read, Write,Create and delete so that they can only select, View, edit, delete and modify the details</t>
@@ -791,6 +663,9 @@
   </si>
   <si>
     <t>User should be able to login to WSC application.</t>
+  </si>
+  <si>
+    <t>User Id:-Administrator Pwd:-wsc@123</t>
   </si>
   <si>
     <t>Verify the Notification for the Mentor-Mentee module.</t>
@@ -1277,12 +1152,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1515,7 +1390,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,12 +1412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDFCBA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,16 +1847,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1996,7 +1865,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2020,16 +1889,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2038,90 +1907,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2241,17 +2110,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2326,12 +2207,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2350,17 +2225,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2392,6 +2272,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2399,6 +2280,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2408,10 +2298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2790,38 +2680,38 @@
   <sheetData>
     <row r="1" s="25" customFormat="1"/>
     <row r="2" s="25" customFormat="1" ht="21" spans="1:5">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" s="25" customFormat="1"/>
     <row r="4" s="25" customFormat="1" ht="150" spans="1:12">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" s="25" customFormat="1" spans="2:12">
       <c r="B5" s="29"/>
@@ -2851,31 +2741,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="86" customWidth="1"/>
-    <col min="2" max="2" width="67" style="86" customWidth="1"/>
-    <col min="3" max="3" width="73.1428571428571" style="86" customWidth="1"/>
-    <col min="4" max="4" width="58.1428571428571" style="86" customWidth="1"/>
-    <col min="5" max="5" width="22" style="86" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" style="86" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="86"/>
+    <col min="1" max="1" width="18.7142857142857" style="88" customWidth="1"/>
+    <col min="2" max="2" width="67" style="88" customWidth="1"/>
+    <col min="3" max="3" width="73.1428571428571" style="88" customWidth="1"/>
+    <col min="4" max="4" width="36.8571428571429" style="88" customWidth="1"/>
+    <col min="5" max="5" width="35.7142857142857" style="88" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" style="88" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" s="86" customFormat="1" ht="52" customHeight="1" spans="1:7">
-      <c r="A1" s="88" t="s">
+    <row r="1" s="88" customFormat="1" ht="52" customHeight="1" spans="1:7">
+      <c r="A1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="50" t="s">
@@ -2885,1007 +2775,849 @@
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" s="86" customFormat="1" spans="1:7">
-      <c r="A2" s="88" t="s">
+    <row r="2" s="88" customFormat="1" spans="1:7">
+      <c r="A2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="88" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+    </row>
+    <row r="5" s="88" customFormat="1" spans="1:6">
+      <c r="A5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B5" s="55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" s="86" customFormat="1" spans="1:6">
-      <c r="A6" s="88" t="s">
+      <c r="C5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+    </row>
+    <row r="6" s="88" customFormat="1" ht="75" spans="1:6">
+      <c r="A6" s="90">
+        <v>1</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-    </row>
-    <row r="7" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A7" s="89">
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+    </row>
+    <row r="7" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A7" s="90">
+        <v>2</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+    </row>
+    <row r="8" s="88" customFormat="1" spans="1:2">
+      <c r="A8" s="90">
+        <v>3</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="88" customFormat="1" spans="1:7">
+      <c r="A9" s="90">
+        <v>4</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+    </row>
+    <row r="10" s="88" customFormat="1" spans="1:7">
+      <c r="A10" s="90">
+        <v>5</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+    </row>
+    <row r="11" s="88" customFormat="1" spans="1:7">
+      <c r="A11" s="90">
+        <v>6</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+    </row>
+    <row r="12" s="88" customFormat="1" spans="1:7">
+      <c r="A12" s="90">
+        <v>7</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+    </row>
+    <row r="13" s="88" customFormat="1" spans="1:7">
+      <c r="A13" s="90">
+        <v>8</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+    </row>
+    <row r="14" s="88" customFormat="1" spans="3:7">
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+    </row>
+    <row r="15" s="88" customFormat="1" spans="3:7">
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+    </row>
+    <row r="16" s="88" customFormat="1" spans="1:7">
+      <c r="A16" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+    </row>
+    <row r="17" s="88" customFormat="1" spans="1:7">
+      <c r="A17" s="101">
         <v>1</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B17" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+    </row>
+    <row r="18" s="88" customFormat="1" spans="1:7">
+      <c r="A18" s="103">
+        <v>2</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+    </row>
+    <row r="19" s="88" customFormat="1" spans="1:2">
+      <c r="A19" s="103">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" s="88" customFormat="1" spans="1:2">
+      <c r="A20" s="103">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" s="88" customFormat="1" spans="1:2">
+      <c r="A21" s="103">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" s="88" customFormat="1" spans="1:2">
+      <c r="A22" s="103">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" s="88" customFormat="1" spans="1:2">
+      <c r="A23" s="103">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" s="88" customFormat="1" spans="7:7">
+      <c r="G24" s="94"/>
+    </row>
+    <row r="25" s="89" customFormat="1" spans="1:7">
+      <c r="A25" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="105"/>
+    </row>
+    <row r="26" s="88" customFormat="1" ht="30" spans="1:7">
+      <c r="A26" s="106">
+        <v>1</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="94"/>
+    </row>
+    <row r="27" s="88" customFormat="1" spans="1:6">
+      <c r="A27" s="90">
+        <v>2</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="109"/>
+    </row>
+    <row r="28" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="110">
+        <v>3</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="109"/>
+    </row>
+    <row r="29" s="88" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A29" s="111"/>
+      <c r="B29" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="109"/>
+    </row>
+    <row r="30" s="88" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A30" s="90">
+        <v>4</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="109"/>
+    </row>
+    <row r="31" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A31" s="90">
+        <v>5</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="109"/>
+    </row>
+    <row r="32" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="90">
+        <v>6</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="109"/>
+    </row>
+    <row r="33" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="90">
+        <v>7</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="112"/>
+    </row>
+    <row r="34" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="110">
+        <v>8</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="112"/>
+    </row>
+    <row r="35" s="88" customFormat="1" spans="1:6">
+      <c r="A35" s="111"/>
+      <c r="B35" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="112"/>
+    </row>
+    <row r="36" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A36" s="110">
+        <v>9</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="112"/>
+    </row>
+    <row r="37" s="88" customFormat="1" spans="1:6">
+      <c r="A37" s="111"/>
+      <c r="B37" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="112"/>
+    </row>
+    <row r="38" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A38" s="90">
+        <v>10</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="112"/>
+    </row>
+    <row r="39" s="88" customFormat="1" spans="1:6">
+      <c r="A39" s="90">
+        <v>11</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="112"/>
+    </row>
+    <row r="40" s="88" customFormat="1" spans="1:6">
+      <c r="A40" s="90"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="112"/>
+    </row>
+    <row r="41" s="88" customFormat="1" spans="1:6">
+      <c r="A41" s="90"/>
+      <c r="B41" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="115"/>
+    </row>
+    <row r="42" s="88" customFormat="1" spans="1:6">
+      <c r="A42" s="90"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+    </row>
+    <row r="43" s="88" customFormat="1" spans="1:6">
+      <c r="A43" s="90">
+        <v>12</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="90"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="112"/>
+    </row>
+    <row r="44" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A44" s="90">
+        <v>13</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="112"/>
+    </row>
+    <row r="45" s="88" customFormat="1" spans="1:6">
+      <c r="A45" s="90">
+        <v>14</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="90"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="112"/>
+    </row>
+    <row r="46" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A46" s="90">
+        <v>15</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="112"/>
+    </row>
+    <row r="47" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A47" s="90">
+        <v>16</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="112"/>
+    </row>
+    <row r="48" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A48" s="90">
+        <v>17</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="112"/>
+    </row>
+    <row r="49" s="88" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="90">
         <v>18</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="B49" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="112"/>
+    </row>
+    <row r="50" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A50" s="90">
         <v>19</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-    </row>
-    <row r="8" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A8" s="89">
-        <v>2</v>
-      </c>
-      <c r="B8" s="54" t="s">
+      <c r="B50" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="112"/>
+    </row>
+    <row r="51" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A51" s="90">
         <v>20</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="92" t="s">
+      <c r="B51" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="112"/>
+    </row>
+    <row r="52" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A52" s="90">
         <v>21</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-    </row>
-    <row r="9" s="86" customFormat="1" spans="1:2">
-      <c r="A9" s="89">
-        <v>3</v>
-      </c>
-      <c r="B9" s="93" t="s">
+      <c r="B52" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="49"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="112"/>
+    </row>
+    <row r="53" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A53" s="90">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" s="86" customFormat="1" spans="1:7">
-      <c r="A10" s="89">
-        <v>4</v>
-      </c>
-      <c r="B10" s="94" t="s">
+      <c r="B53" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="74"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="112"/>
+    </row>
+    <row r="54" s="88" customFormat="1" spans="1:6">
+      <c r="A54" s="117"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+    </row>
+    <row r="55" s="88" customFormat="1" spans="1:6">
+      <c r="A55" s="117"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+    </row>
+    <row r="56" s="88" customFormat="1" spans="1:6">
+      <c r="A56" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+    </row>
+    <row r="57" s="88" customFormat="1" ht="60" spans="1:6">
+      <c r="A57" s="123">
         <v>23</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-    </row>
-    <row r="11" s="86" customFormat="1" spans="1:7">
-      <c r="A11" s="89">
-        <v>5</v>
-      </c>
-      <c r="B11" s="95" t="s">
+      <c r="B57" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="57"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A58" s="123">
         <v>24</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-    </row>
-    <row r="12" s="86" customFormat="1" spans="1:7">
-      <c r="A12" s="89">
-        <v>6</v>
-      </c>
-      <c r="B12" s="96" t="s">
+      <c r="B58" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="57"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A59" s="124">
         <v>25</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-    </row>
-    <row r="13" s="86" customFormat="1" spans="1:7">
-      <c r="A13" s="89">
-        <v>7</v>
-      </c>
-      <c r="B13" s="97" t="s">
+      <c r="B59" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="57"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" s="88" customFormat="1" spans="1:6">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" s="88" customFormat="1" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" s="88" customFormat="1" spans="1:6">
+      <c r="A62" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A63" s="127">
         <v>26</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-    </row>
-    <row r="14" s="86" customFormat="1" spans="1:7">
-      <c r="A14" s="89">
-        <v>8</v>
-      </c>
-      <c r="B14" s="97" t="s">
+      <c r="B63" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="85"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="128"/>
+    </row>
+    <row r="64" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A64" s="7"/>
+      <c r="B64" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A65" s="7"/>
+      <c r="B65" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="57"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A66" s="7">
         <v>27</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-    </row>
-    <row r="15" s="86" customFormat="1" spans="3:7">
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-    </row>
-    <row r="16" s="86" customFormat="1" spans="3:7">
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-    </row>
-    <row r="17" s="86" customFormat="1" spans="1:7">
-      <c r="A17" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="88" t="s">
+      <c r="B66" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="57"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A67" s="7"/>
+      <c r="B67" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="57"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A68" s="7"/>
+      <c r="B68" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="57"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A69" s="7">
         <v>28</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-    </row>
-    <row r="18" s="86" customFormat="1" spans="1:7">
-      <c r="A18" s="98">
-        <v>1</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-    </row>
-    <row r="19" s="86" customFormat="1" spans="1:7">
-      <c r="A19" s="100">
-        <v>2</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-    </row>
-    <row r="20" s="86" customFormat="1" spans="1:2">
-      <c r="A20" s="100">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" s="86" customFormat="1" spans="1:2">
-      <c r="A21" s="100">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" s="86" customFormat="1" spans="1:2">
-      <c r="A22" s="100">
-        <v>5</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" s="86" customFormat="1" spans="1:2">
-      <c r="A23" s="100">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" s="86" customFormat="1" spans="1:2">
-      <c r="A24" s="100">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" s="86" customFormat="1" spans="7:7">
-      <c r="G25" s="90"/>
-    </row>
-    <row r="26" s="87" customFormat="1" spans="1:7">
-      <c r="A26" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="102"/>
-    </row>
-    <row r="27" s="86" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="103">
-        <v>1</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="105"/>
-      <c r="G27" s="90"/>
-    </row>
-    <row r="28" s="86" customFormat="1" spans="1:6">
-      <c r="A28" s="89">
-        <v>2</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="92"/>
-    </row>
-    <row r="29" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="106">
-        <v>3</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="92"/>
-    </row>
-    <row r="30" s="86" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A30" s="107"/>
-      <c r="B30" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="92"/>
-    </row>
-    <row r="31" s="86" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A31" s="89">
-        <v>4</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="92"/>
-    </row>
-    <row r="32" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="89">
-        <v>5</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="92"/>
-    </row>
-    <row r="33" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="89">
-        <v>6</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="92"/>
-    </row>
-    <row r="34" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="89">
-        <v>7</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="108"/>
-    </row>
-    <row r="35" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A35" s="106">
-        <v>8</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="108"/>
-    </row>
-    <row r="36" s="86" customFormat="1" spans="1:6">
-      <c r="A36" s="107"/>
-      <c r="B36" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="108"/>
-    </row>
-    <row r="37" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A37" s="106">
-        <v>9</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="108"/>
-    </row>
-    <row r="38" s="86" customFormat="1" spans="1:6">
-      <c r="A38" s="107"/>
-      <c r="B38" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="108"/>
-    </row>
-    <row r="39" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A39" s="89">
-        <v>10</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="108"/>
-    </row>
-    <row r="40" s="86" customFormat="1" spans="1:6">
-      <c r="A40" s="89">
-        <v>11</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="108"/>
-    </row>
-    <row r="41" s="86" customFormat="1" spans="1:6">
-      <c r="A41" s="89"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="108"/>
-    </row>
-    <row r="42" s="86" customFormat="1" spans="1:6">
-      <c r="A42" s="89"/>
-      <c r="B42" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="108"/>
-    </row>
-    <row r="43" s="86" customFormat="1" spans="1:6">
-      <c r="A43" s="89"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-    </row>
-    <row r="44" s="86" customFormat="1" spans="1:6">
-      <c r="A44" s="89">
-        <v>12</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="108"/>
-    </row>
-    <row r="45" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="89">
-        <v>13</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="108"/>
-    </row>
-    <row r="46" s="86" customFormat="1" spans="1:6">
-      <c r="A46" s="89">
-        <v>14</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="108"/>
-    </row>
-    <row r="47" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A47" s="89">
-        <v>15</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="108"/>
-    </row>
-    <row r="48" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A48" s="89">
-        <v>16</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="108"/>
-    </row>
-    <row r="49" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="89">
-        <v>17</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="49" t="s">
+      <c r="B69" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="57"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A70" s="7"/>
+      <c r="B70" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="108"/>
-    </row>
-    <row r="50" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A50" s="89">
-        <v>18</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="49" t="s">
+      <c r="D70" s="57"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A71" s="7"/>
+      <c r="B71" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="108"/>
-    </row>
-    <row r="51" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="89">
-        <v>19</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="108"/>
-    </row>
-    <row r="52" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A52" s="89">
-        <v>20</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="108"/>
-    </row>
-    <row r="53" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A53" s="89">
-        <v>21</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="108"/>
-    </row>
-    <row r="54" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A54" s="89">
-        <v>22</v>
-      </c>
-      <c r="B54" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="108"/>
-    </row>
-    <row r="55" s="86" customFormat="1" spans="1:6">
-      <c r="A55" s="110"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-    </row>
-    <row r="56" s="86" customFormat="1" spans="1:6">
-      <c r="A56" s="110"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-    </row>
-    <row r="57" s="86" customFormat="1" spans="1:6">
-      <c r="A57" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-    </row>
-    <row r="58" s="86" customFormat="1" ht="60" spans="1:6">
-      <c r="A58" s="116">
-        <v>23</v>
-      </c>
-      <c r="B58" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A59" s="116">
-        <v>24</v>
-      </c>
-      <c r="B59" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A60" s="117">
-        <v>25</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" s="86" customFormat="1" spans="1:6">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" s="86" customFormat="1" spans="1:6">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" s="86" customFormat="1" spans="1:6">
-      <c r="A63" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="119" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" s="119" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A64" s="120">
-        <v>26</v>
-      </c>
-      <c r="B64" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="121"/>
-    </row>
-    <row r="65" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A65" s="7"/>
-      <c r="B65" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A66" s="7"/>
-      <c r="B66" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A67" s="7">
-        <v>27</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A68" s="7"/>
-      <c r="B68" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A69" s="7"/>
-      <c r="B69" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A70" s="7">
-        <v>28</v>
-      </c>
-      <c r="B70" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A71" s="7"/>
-      <c r="B71" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="104" t="s">
-        <v>44</v>
-      </c>
+      <c r="D71" s="57"/>
+      <c r="E71" s="107"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A72" s="7"/>
-      <c r="B72" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F72" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3895,20 +3627,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.2857142857143" style="46" customWidth="1"/>
+    <col min="1" max="1" width="13.4285714285714" style="46" customWidth="1"/>
     <col min="2" max="2" width="43" style="46" customWidth="1"/>
     <col min="3" max="3" width="69.1428571428571" style="46" customWidth="1"/>
-    <col min="4" max="4" width="62" style="46" customWidth="1"/>
+    <col min="4" max="4" width="34.8571428571429" style="46" customWidth="1"/>
     <col min="5" max="5" width="22.4285714285714" style="46" customWidth="1"/>
-    <col min="6" max="6" width="29" style="46" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="46" customWidth="1"/>
     <col min="7" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
@@ -3917,13 +3649,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -3939,718 +3671,615 @@
       <c r="C2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" ht="30" spans="1:2">
-      <c r="A3" s="48" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="5" s="46" customFormat="1" spans="1:6">
+      <c r="A5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B5" s="54" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" s="46" customFormat="1" spans="1:6">
-      <c r="A6" s="51" t="s">
+      <c r="C5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="48" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" s="46" customFormat="1" ht="75" spans="1:6">
+      <c r="A6" s="49">
+        <v>1</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" s="46" customFormat="1" ht="45" spans="1:6">
       <c r="A7" s="49">
+        <v>2</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" s="46" customFormat="1" spans="1:2">
+      <c r="A8" s="49">
+        <v>3</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="46" customFormat="1" spans="1:7">
+      <c r="A9" s="49">
+        <v>4</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" s="46" customFormat="1" spans="3:7">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" s="46" customFormat="1" spans="3:7">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" s="46" customFormat="1" spans="1:7">
+      <c r="A12" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" s="46" customFormat="1" spans="1:7">
+      <c r="A13" s="61">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A8" s="49">
+      <c r="B13" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" s="46" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="63">
         <v>2</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-    </row>
-    <row r="9" s="46" customFormat="1" spans="1:2">
-      <c r="A9" s="49">
+      <c r="B14" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" s="46" customFormat="1" ht="30" spans="1:2">
+      <c r="A15" s="63">
         <v>3</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" s="46" customFormat="1" spans="1:7">
-      <c r="A10" s="49">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" s="46" customFormat="1" spans="1:2">
+      <c r="A16" s="63">
         <v>4</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" s="46" customFormat="1" spans="3:7">
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-    </row>
-    <row r="12" s="46" customFormat="1" spans="3:7">
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" s="46" customFormat="1" spans="1:7">
-      <c r="A13" s="48" t="s">
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" s="46" customFormat="1" spans="1:2">
+      <c r="A17" s="63">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" s="46" customFormat="1" ht="30" spans="1:2">
+      <c r="A18" s="63">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" s="46" customFormat="1" spans="1:2">
+      <c r="A19" s="63">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" s="46" customFormat="1" spans="7:7">
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" s="46" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" s="46" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="50">
+        <v>1</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="49">
+        <v>2</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="49"/>
+    </row>
+    <row r="24" s="46" customFormat="1" spans="1:6">
+      <c r="A24" s="70">
+        <v>3</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="49"/>
+    </row>
+    <row r="25" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="72">
+        <v>4</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="49"/>
+    </row>
+    <row r="26" s="46" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A26" s="73"/>
+      <c r="B26" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="49"/>
+    </row>
+    <row r="27" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="49">
+        <v>5</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="49"/>
+    </row>
+    <row r="28" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="70">
+        <v>6</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" s="46" customFormat="1" spans="1:6">
+      <c r="A29" s="73"/>
+      <c r="B29" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="63"/>
+    </row>
+    <row r="30" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A30" s="70">
+        <v>7</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="63"/>
+    </row>
+    <row r="31" s="46" customFormat="1" spans="1:6">
+      <c r="A31" s="73">
+        <v>8</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="63"/>
+    </row>
+    <row r="32" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="70">
+        <v>9</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="63"/>
+    </row>
+    <row r="33" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="73">
+        <v>10</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="63"/>
+    </row>
+    <row r="34" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A34" s="49">
+        <v>11</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="63"/>
+    </row>
+    <row r="35" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="49">
+        <v>12</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="74"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="63"/>
+    </row>
+    <row r="36" s="46" customFormat="1" spans="1:6">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+    </row>
+    <row r="37" s="46" customFormat="1" spans="1:6">
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+    </row>
+    <row r="38" s="46" customFormat="1" spans="1:6">
+      <c r="A38" s="75"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+    </row>
+    <row r="39" s="46" customFormat="1" spans="1:6">
+      <c r="A39" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+    </row>
+    <row r="40" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A40" s="81">
+        <v>13</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="57"/>
+    </row>
+    <row r="41" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A41" s="81">
+        <v>14</v>
+      </c>
+      <c r="B41" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="57"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="57"/>
+    </row>
+    <row r="42" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A42" s="83">
         <v>15</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-    </row>
-    <row r="14" s="46" customFormat="1" spans="1:7">
-      <c r="A14" s="57">
+      <c r="B42" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="57"/>
+    </row>
+    <row r="43" s="46" customFormat="1" spans="1:6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" s="46" customFormat="1" spans="1:6">
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+    </row>
+    <row r="45" s="47" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A46" s="85">
         <v>1</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-    </row>
-    <row r="15" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="59">
+      <c r="B46" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="85"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="86"/>
+    </row>
+    <row r="47" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-    </row>
-    <row r="16" s="46" customFormat="1" ht="30" spans="1:2">
-      <c r="A16" s="59">
+      <c r="B49" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="57"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A52" s="57">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" s="46" customFormat="1" spans="1:2">
-      <c r="A17" s="59">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" s="46" customFormat="1" spans="1:2">
-      <c r="A18" s="59">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" s="46" customFormat="1" ht="30" spans="1:2">
-      <c r="A19" s="59">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" s="46" customFormat="1" spans="1:2">
-      <c r="A20" s="59">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" s="46" customFormat="1" spans="7:7">
-      <c r="G21" s="52"/>
-    </row>
-    <row r="22" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="50">
-        <v>1</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="52"/>
-    </row>
-    <row r="24" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="49">
-        <v>2</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="49"/>
-    </row>
-    <row r="25" s="46" customFormat="1" spans="1:6">
-      <c r="A25" s="66">
-        <v>3</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="49"/>
-    </row>
-    <row r="26" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="68">
-        <v>4</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="49"/>
-    </row>
-    <row r="27" s="46" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A27" s="69"/>
-      <c r="B27" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="49"/>
-    </row>
-    <row r="28" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="49">
-        <v>5</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="49"/>
-    </row>
-    <row r="29" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="66">
-        <v>6</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="49"/>
-    </row>
-    <row r="30" s="46" customFormat="1" spans="1:6">
-      <c r="A30" s="69"/>
-      <c r="B30" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A31" s="66">
-        <v>7</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="59"/>
-    </row>
-    <row r="32" s="46" customFormat="1" spans="1:6">
-      <c r="A32" s="69">
-        <v>8</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="59"/>
-    </row>
-    <row r="33" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="66">
-        <v>9</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="69">
-        <v>10</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="59"/>
-    </row>
-    <row r="35" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A35" s="49">
-        <v>11</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="59"/>
-    </row>
-    <row r="36" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A36" s="49">
-        <v>12</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="37" s="46" customFormat="1" spans="1:6">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-    </row>
-    <row r="38" s="46" customFormat="1" spans="1:6">
-      <c r="A38" s="71"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-    </row>
-    <row r="39" s="46" customFormat="1" spans="1:6">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-    </row>
-    <row r="40" s="46" customFormat="1" spans="1:6">
-      <c r="A40" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-    </row>
-    <row r="41" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A41" s="77">
-        <v>13</v>
-      </c>
-      <c r="B41" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="53"/>
-    </row>
-    <row r="42" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="77">
-        <v>14</v>
-      </c>
-      <c r="B42" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="53"/>
-    </row>
-    <row r="43" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A43" s="79">
-        <v>15</v>
-      </c>
-      <c r="B43" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" s="46" customFormat="1" spans="1:6">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" s="46" customFormat="1" spans="1:6">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-    </row>
-    <row r="46" s="47" customFormat="1" ht="30" spans="1:6">
-      <c r="A46" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A47" s="83">
-        <v>1</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="84"/>
-    </row>
-    <row r="48" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A50" s="53">
-        <v>2</v>
-      </c>
-      <c r="B50" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>44</v>
-      </c>
+      <c r="B52" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="87"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A53" s="53">
-        <v>3</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="85"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="87"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="85"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="87"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="85"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4663,7 +4292,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4683,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="26" t="s">
@@ -4716,17 +4345,17 @@
     </row>
     <row r="4" s="25" customFormat="1" spans="1:7">
       <c r="A4" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="28"/>
@@ -4736,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="37">
@@ -4751,7 +4380,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="39"/>
@@ -4768,10 +4397,10 @@
     </row>
     <row r="8" s="25" customFormat="1" ht="63" customHeight="1" spans="1:7">
       <c r="A8" s="40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="30"/>
@@ -4808,25 +4437,25 @@
     </row>
     <row r="12" s="25" customFormat="1" spans="1:7">
       <c r="A12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>123</v>
-      </c>
       <c r="F12" s="43" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" s="25" customFormat="1" ht="45" spans="1:7">
@@ -4834,13 +4463,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -4851,13 +4480,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -4923,14 +4552,14 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4960,18 +4589,18 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4981,13 +4610,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5013,10 +4642,10 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5028,7 +4657,7 @@
     <row r="9" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -5059,16 +4688,16 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5077,7 +4706,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -5090,11 +4719,11 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="17" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5105,11 +4734,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="17" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5120,11 +4749,11 @@
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5135,11 +4764,11 @@
         <v>4</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="17" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5148,7 +4777,7 @@
     <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="15"/>
       <c r="B18" s="12" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -5161,11 +4790,11 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="17" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5176,11 +4805,11 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="17" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5191,11 +4820,11 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="8" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -5206,11 +4835,11 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="8" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5219,7 +4848,7 @@
     <row r="23" s="1" customFormat="1" spans="1:7">
       <c r="A23" s="15"/>
       <c r="B23" s="12" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="8"/>
@@ -5232,11 +4861,11 @@
         <v>10</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="8" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5245,7 +4874,7 @@
     <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="15"/>
       <c r="B25" s="12" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="8"/>
@@ -5258,11 +4887,11 @@
         <v>11</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5273,11 +4902,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="8" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -5288,11 +4917,11 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="8" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5303,7 +4932,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="8"/>
@@ -5316,7 +4945,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="8"/>
@@ -5327,7 +4956,7 @@
     <row r="31" s="1" customFormat="1" spans="1:7">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="8"/>
@@ -5340,11 +4969,11 @@
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -5355,11 +4984,11 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -5370,11 +4999,11 @@
         <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5385,11 +5014,11 @@
         <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="8" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -5400,11 +5029,11 @@
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="8" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5415,11 +5044,11 @@
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="8" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5430,11 +5059,11 @@
         <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="8" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5445,11 +5074,11 @@
         <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="8" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -5460,11 +5089,11 @@
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="8" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -5475,11 +5104,11 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="8" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -5490,11 +5119,11 @@
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="8" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -5505,11 +5134,11 @@
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="8" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -5520,11 +5149,11 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="8" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5535,11 +5164,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5550,11 +5179,11 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5565,7 +5194,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -5578,11 +5207,11 @@
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="8" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5593,7 +5222,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="8"/>
@@ -5606,11 +5235,11 @@
         <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="8" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5621,7 +5250,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="8"/>
@@ -5634,7 +5263,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="8"/>
@@ -5647,7 +5276,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="8"/>
@@ -5660,7 +5289,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="8"/>
@@ -5680,7 +5309,7 @@
     <row r="56" s="1" customFormat="1" spans="1:7">
       <c r="A56" s="20"/>
       <c r="B56" s="21" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="8"/>
@@ -5693,11 +5322,11 @@
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="8" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -5715,7 +5344,7 @@
     <row r="59" s="1" customFormat="1" spans="1:7">
       <c r="A59" s="20"/>
       <c r="B59" s="12" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="8"/>
@@ -5728,11 +5357,11 @@
         <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="8" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -5743,11 +5372,11 @@
         <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="8" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -5758,11 +5387,11 @@
         <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="8" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -5773,14 +5402,14 @@
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="8" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -5790,11 +5419,11 @@
         <v>44</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="8" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -5805,11 +5434,11 @@
         <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="8" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -5820,11 +5449,11 @@
         <v>46</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="8" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -5835,11 +5464,11 @@
         <v>47</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="8" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -5850,11 +5479,11 @@
         <v>48</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -5865,11 +5494,11 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="8" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -5880,11 +5509,11 @@
         <v>50</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="8" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -5895,11 +5524,11 @@
         <v>51</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="8" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -5910,11 +5539,11 @@
         <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="8" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="8"/>
@@ -5925,11 +5554,11 @@
         <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="8" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="8"/>
@@ -5940,11 +5569,11 @@
         <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="8" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="8"/>
@@ -5955,11 +5584,11 @@
         <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="8" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="8"/>
@@ -5970,11 +5599,11 @@
         <v>56</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="8" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -5985,11 +5614,11 @@
         <v>57</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="8" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -5998,7 +5627,7 @@
     <row r="78" s="1" customFormat="1" spans="1:7">
       <c r="A78" s="20"/>
       <c r="B78" s="23" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -6011,11 +5640,11 @@
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="3"/>
@@ -6026,11 +5655,11 @@
         <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="3"/>
@@ -6041,11 +5670,11 @@
         <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
